--- a/src/test/java/CHARMS/resources/QBankSurveys.xlsx
+++ b/src/test/java/CHARMS/resources/QBankSurveys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2006310-0BD0-5545-89B8-D959731B9F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFB696-B968-F649-949D-D8F85DCA737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="8080" windowWidth="25600" windowHeight="11760" activeTab="1" xr2:uid="{3EC3EF72-7070-5E40-92B2-D17BBBE5E0F1}"/>
+    <workbookView xWindow="880" yWindow="820" windowWidth="22780" windowHeight="17660" activeTab="1" xr2:uid="{3EC3EF72-7070-5E40-92B2-D17BBBE5E0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="RASSmokingSurvey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Have you ever used any of these tobacco products, even once? Select all that apply.</t>
   </si>
@@ -78,30 +78,15 @@
     <t>1 hour</t>
   </si>
   <si>
-    <t>Light household chores (such as cooking, tidying up, laundry, or dusting)</t>
-  </si>
-  <si>
     <t>Never</t>
   </si>
   <si>
-    <t>Moderate to Vigorous household chores (such as vacuuming or sweeping)</t>
-  </si>
-  <si>
-    <t>Caring for pets (walking dogs, feeding, playing, grooming)</t>
-  </si>
-  <si>
     <t>2 to 3 days per month</t>
   </si>
   <si>
-    <t>Caring for children or adults (pushing stroller or wheelchair, lifting, bathing)</t>
-  </si>
-  <si>
     <t>1 to 2 days per week</t>
   </si>
   <si>
-    <t>Walking while shopping or doing errands (do not count walking for exercise)</t>
-  </si>
-  <si>
     <t>3 to 4 days per week</t>
   </si>
   <si>
@@ -130,6 +115,57 @@
   </si>
   <si>
     <t>45 to 59 minutes</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Light household chores (such as cooking, tidying up, laundry, or dusting)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Moderate to Vigorous household chores (such as vacuuming or sweeping)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Caring for pets (walking dogs, feeding, playing, grooming)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Caring for children or adults (pushing stroller or wheelchair, lifting, bathing)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Walking while shopping or doing errands (do not count walking for exercise)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did you do any of these activities outside of work? Moderate outdoor chores (such as weeding, raking or mowing the lawn)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did you do any of these activities outside of work? Vigorous outdoor chores (such as digging, carrying lumber, or snow shoveling)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did you do any of these activities outside of work? Home repair (such as painting, plumbing, or replacing carpeting)</t>
+  </si>
+  <si>
+    <t>How often did you participate in STRENUOUS activities or sports? Average Hours per week</t>
+  </si>
+  <si>
+    <t>How often did you participate in MODERATE activities or sports? Average Hours per week</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>How often did you participate in STRENUOUS activities or sports? Select Age Group</t>
+  </si>
+  <si>
+    <t>How often did you participate in MODERATE activities or sports? Select Age Group</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1-3 hours</t>
+  </si>
+  <si>
+    <t>More than 3 hours</t>
   </si>
 </sst>
 </file>
@@ -165,9 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,15 +600,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5CCAEB-F8BC-1B4F-A92D-5C9E4E146F8C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="141" customWidth="1"/>
+    <col min="1" max="1" width="155.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -591,15 +630,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -607,69 +646,126 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/java/CHARMS/resources/QBankSurveys.xlsx
+++ b/src/test/java/CHARMS/resources/QBankSurveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFB696-B968-F649-949D-D8F85DCA737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F0AC2-1111-9F4B-BC3A-6BB4288A8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="820" windowWidth="22780" windowHeight="17660" activeTab="1" xr2:uid="{3EC3EF72-7070-5E40-92B2-D17BBBE5E0F1}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="22780" windowHeight="17640" activeTab="1" xr2:uid="{3EC3EF72-7070-5E40-92B2-D17BBBE5E0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="RASSmokingSurvey" sheetId="1" r:id="rId1"/>
@@ -78,94 +78,94 @@
     <t>1 hour</t>
   </si>
   <si>
+    <t>2 to 3 days per month</t>
+  </si>
+  <si>
+    <t>1 to 2 days per week</t>
+  </si>
+  <si>
+    <t>3 to 4 days per week</t>
+  </si>
+  <si>
+    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Light household chores (such as cooking, cleaning up, laundry, or dusting.)</t>
+  </si>
+  <si>
+    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Moderate to vigorous household chores (such as vacuuming or sweeping)</t>
+  </si>
+  <si>
+    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Caring for pets (walking dogs, feeding, playing, grooming)</t>
+  </si>
+  <si>
+    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Caring for children or adults (pushing stroller or wheelchair, lifting, bathing)</t>
+  </si>
+  <si>
+    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Walking while shopping or doing errands (do not count walking for exercise)</t>
+  </si>
+  <si>
+    <t>16 to 30 minutes</t>
+  </si>
+  <si>
+    <t>31 to 44 minutes</t>
+  </si>
+  <si>
+    <t>45 to 59 minutes</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Light household chores (such as cooking, tidying up, laundry, or dusting)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Moderate to Vigorous household chores (such as vacuuming or sweeping)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Caring for pets (walking dogs, feeding, playing, grooming)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Caring for children or adults (pushing stroller or wheelchair, lifting, bathing)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Walking while shopping or doing errands (do not count walking for exercise)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did you do any of these activities outside of work? Moderate outdoor chores (such as weeding, raking or mowing the lawn)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did you do any of these activities outside of work? Vigorous outdoor chores (such as digging, carrying lumber, or snow shoveling)</t>
+  </si>
+  <si>
+    <t>During the past 12 months, did you do any of these activities outside of work? Home repair (such as painting, plumbing, or replacing carpeting)</t>
+  </si>
+  <si>
+    <t>How often did you participate in STRENUOUS activities or sports? Average Hours per week</t>
+  </si>
+  <si>
+    <t>How often did you participate in MODERATE activities or sports? Average Hours per week</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>How often did you participate in STRENUOUS activities or sports? Select Age Group</t>
+  </si>
+  <si>
+    <t>How often did you participate in MODERATE activities or sports? Select Age Group</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1-3 hours</t>
+  </si>
+  <si>
+    <t>More than 3 hours</t>
+  </si>
+  <si>
     <t>Never</t>
   </si>
   <si>
-    <t>2 to 3 days per month</t>
-  </si>
-  <si>
-    <t>1 to 2 days per week</t>
-  </si>
-  <si>
-    <t>3 to 4 days per week</t>
-  </si>
-  <si>
-    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Light household chores (such as cooking, cleaning up, laundry, or dusting.)</t>
-  </si>
-  <si>
-    <t>15 minutes or less</t>
-  </si>
-  <si>
-    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Moderate to vigorous household chores (such as vacuuming or sweeping)</t>
-  </si>
-  <si>
-    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Caring for pets (walking dogs, feeding, playing, grooming)</t>
-  </si>
-  <si>
-    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Caring for children or adults (pushing stroller or wheelchair, lifting, bathing)</t>
-  </si>
-  <si>
-    <t>When you did household tasks or shopping, how much time per day did you spend doing each activity? Walking while shopping or doing errands (do not count walking for exercise)</t>
-  </si>
-  <si>
-    <t>16 to 30 minutes</t>
-  </si>
-  <si>
-    <t>31 to 44 minutes</t>
-  </si>
-  <si>
-    <t>45 to 59 minutes</t>
-  </si>
-  <si>
-    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Light household chores (such as cooking, tidying up, laundry, or dusting)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Moderate to Vigorous household chores (such as vacuuming or sweeping)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Caring for pets (walking dogs, feeding, playing, grooming)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Caring for children or adults (pushing stroller or wheelchair, lifting, bathing)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, about how often did you do each of these household or shopping activities outside of work? Walking while shopping or doing errands (do not count walking for exercise)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, did you do any of these activities outside of work? Moderate outdoor chores (such as weeding, raking or mowing the lawn)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, did you do any of these activities outside of work? Vigorous outdoor chores (such as digging, carrying lumber, or snow shoveling)</t>
-  </si>
-  <si>
-    <t>During the past 12 months, did you do any of these activities outside of work? Home repair (such as painting, plumbing, or replacing carpeting)</t>
-  </si>
-  <si>
-    <t>How often did you participate in STRENUOUS activities or sports? Average Hours per week</t>
-  </si>
-  <si>
-    <t>How often did you participate in MODERATE activities or sports? Average Hours per week</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>How often did you participate in STRENUOUS activities or sports? Select Age Group</t>
-  </si>
-  <si>
-    <t>How often did you participate in MODERATE activities or sports? Select Age Group</t>
-  </si>
-  <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>1-3 hours</t>
-  </si>
-  <si>
-    <t>More than 3 hours</t>
+    <t>-- None --</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,15 +630,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -646,63 +646,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -710,58 +710,58 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/QBankSurveys.xlsx
+++ b/src/test/java/CHARMS/resources/QBankSurveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F0AC2-1111-9F4B-BC3A-6BB4288A8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5806AFEC-A9C2-C344-8C9F-698497680AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="22780" windowHeight="17640" activeTab="1" xr2:uid="{3EC3EF72-7070-5E40-92B2-D17BBBE5E0F1}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="22780" windowHeight="17600" activeTab="1" xr2:uid="{3EC3EF72-7070-5E40-92B2-D17BBBE5E0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="RASSmokingSurvey" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
